--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967273.763853579</v>
+        <v>1965021.68414237</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>31.84538444784386</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>78.961229153611</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>72.82894791404829</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335173</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067175</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7083496784884</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>45.10683729225614</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525622</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358568</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>96.04699508553873</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>120.6801145208582</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>156.0100170058536</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377008</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>48.1367608075451</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.6594061765015</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.55208621972771</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>126.9263824507407</v>
       </c>
       <c r="D19" t="n">
-        <v>129.3292263586721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.453391420151112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>124.4121185570319</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>19.72264368952139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,16 +2761,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2956,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>271.5134490295728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711243</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.33106662725105</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.1816324288066</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>142.3046100066265</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.8070385036053</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>35.0178230565848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125551</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.715926185139</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>937.4502275783886</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>551.6619749801444</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>140.6760701905368</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189672</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189672</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699.2355044562285</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>699.2355044562285</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>699.2355044562285</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E4" t="n">
-        <v>551.3224108738353</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672846</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.093718466959</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429998</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.676548429998</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.8839692864682</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964586</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024174</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.109788417423</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>731.3215358191792</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>320.3356310295716</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.542934265599</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.077176004519</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028707</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1600.215744761477</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450752</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450752</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435.8535386027983</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>435.8535386027983</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>285.7368991904625</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4987,25 +4987,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310553</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>617.502003433038</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.502003433038</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683301</v>
+        <v>734.6461798836</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404232</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280875</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>456.5257005456943</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>309.635753047784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>142.4396537626639</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4396537626639</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.28419561186</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683301</v>
+        <v>916.2946447138397</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770346</v>
+        <v>803.2707707770305</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>634.3345878491236</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367879</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038366</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750804</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072743</v>
+        <v>984.9192356072703</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>768.5380889459586</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5899,61 +5899,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>449.485266605716</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>301.5721730233229</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>301.5721730233229</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.3929232910542</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>782.4567403631473</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>632.3401009508116</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>484.4270073684185</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>337.5370598705081</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.240688199802</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.823518162841</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.833967264824</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.041388121294</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
         <v>680.0291294438176</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>755.7618030552777</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>605.645163642942</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>457.7320700605488</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>310.8421225626385</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>143.6460232775184</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>143.6460232775184</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.1291986799072</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1043.570242653677</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.7776635101469</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>776.4664207350971</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>628.553327152704</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.6979859831846</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>755.7618030552777</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>755.7618030552777</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>607.8487094728846</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>1106.346450813424</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.922018100231071e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092699</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.12907551102042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5874149221263281</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684146</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32043864788712</v>
       </c>
       <c r="D19" t="n">
-        <v>19.2862466595403</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.1120197352369</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.00954930701823</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>31.93476969131448</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.116438016304727</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.61400951932596</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>874292.7376577441</v>
+        <v>874292.737657744</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830047</v>
-      </c>
       <c r="G2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26347,13 +26347,13 @@
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818177</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818176</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.8989181818</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,25 +26433,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954133.3463021687</v>
+        <v>-954133.3463021691</v>
       </c>
       <c r="C6" t="n">
-        <v>374611.399425423</v>
+        <v>374611.3994254236</v>
       </c>
       <c r="D6" t="n">
-        <v>374611.3994254236</v>
+        <v>374611.3994254232</v>
       </c>
       <c r="E6" t="n">
-        <v>125470.7640049114</v>
+        <v>125436.0260794759</v>
       </c>
       <c r="F6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="G6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="H6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="I6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.487886831</v>
       </c>
       <c r="J6" t="n">
-        <v>233352.0234149899</v>
+        <v>233317.2854895537</v>
       </c>
       <c r="K6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="L6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="M6" t="n">
-        <v>365828.1978767547</v>
+        <v>365793.4599513191</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="O6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868313</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>379.0763412056096</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024426</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>72.59210010888296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903107</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>201.2133759749651</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>174.4421119839131</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413348</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762378</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.1909435705148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>25.75384812571099</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>33.7590083255883</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-4.859222202665234e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>198.560797075695</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>338.6542681503479</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>565.8030433278957</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>336.3457189021236</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>305.6802133385886</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>615.1181176946646</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>660.0558748011979</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096372</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>196.0580237059035</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>423.6690094058774</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7058059242583</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>483.7764056113314</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>517.9218408791796</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
